--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6931703333333333</v>
+        <v>1.824961333333333</v>
       </c>
       <c r="H2">
-        <v>2.079511</v>
+        <v>5.474884</v>
       </c>
       <c r="I2">
-        <v>0.2024518202264606</v>
+        <v>0.377840167393297</v>
       </c>
       <c r="J2">
-        <v>0.2024518202264605</v>
+        <v>0.3778401673932969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>68.58693365732134</v>
+        <v>306.7939346366765</v>
       </c>
       <c r="R2">
-        <v>617.282402915892</v>
+        <v>2761.145411730088</v>
       </c>
       <c r="S2">
-        <v>0.04247458811985824</v>
+        <v>0.1127543923907114</v>
       </c>
       <c r="T2">
-        <v>0.04247458811985824</v>
+        <v>0.1127543923907114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6931703333333333</v>
+        <v>1.824961333333333</v>
       </c>
       <c r="H3">
-        <v>2.079511</v>
+        <v>5.474884</v>
       </c>
       <c r="I3">
-        <v>0.2024518202264606</v>
+        <v>0.377840167393297</v>
       </c>
       <c r="J3">
-        <v>0.2024518202264605</v>
+        <v>0.3778401673932969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>112.9910867124752</v>
+        <v>297.4800771838876</v>
       </c>
       <c r="R3">
-        <v>1016.919780412277</v>
+        <v>2677.320694654988</v>
       </c>
       <c r="S3">
-        <v>0.06997323853703546</v>
+        <v>0.1093313184008472</v>
       </c>
       <c r="T3">
-        <v>0.06997323853703546</v>
+        <v>0.1093313184008472</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6931703333333333</v>
+        <v>1.824961333333333</v>
       </c>
       <c r="H4">
-        <v>2.079511</v>
+        <v>5.474884</v>
       </c>
       <c r="I4">
-        <v>0.2024518202264606</v>
+        <v>0.377840167393297</v>
       </c>
       <c r="J4">
-        <v>0.2024518202264605</v>
+        <v>0.3778401673932969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>100.0056225563656</v>
+        <v>302.9317738335067</v>
       </c>
       <c r="R4">
-        <v>900.0506030072901</v>
+        <v>2726.38596450156</v>
       </c>
       <c r="S4">
-        <v>0.06193158669221553</v>
+        <v>0.1113349523512845</v>
       </c>
       <c r="T4">
-        <v>0.06193158669221553</v>
+        <v>0.1113349523512845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6931703333333333</v>
+        <v>1.824961333333333</v>
       </c>
       <c r="H5">
-        <v>2.079511</v>
+        <v>5.474884</v>
       </c>
       <c r="I5">
-        <v>0.2024518202264606</v>
+        <v>0.377840167393297</v>
       </c>
       <c r="J5">
-        <v>0.2024518202264605</v>
+        <v>0.3778401673932969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>45.33064105683557</v>
+        <v>120.8612293912725</v>
       </c>
       <c r="R5">
-        <v>407.9757695115201</v>
+        <v>1087.751064521452</v>
       </c>
       <c r="S5">
-        <v>0.02807240687735132</v>
+        <v>0.04441950425045388</v>
       </c>
       <c r="T5">
-        <v>0.02807240687735132</v>
+        <v>0.04441950425045387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.445865</v>
       </c>
       <c r="I6">
-        <v>0.04340740723433098</v>
+        <v>0.03077064395059555</v>
       </c>
       <c r="J6">
-        <v>0.04340740723433097</v>
+        <v>0.03077064395059554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>14.70562703208667</v>
+        <v>24.98476272132556</v>
       </c>
       <c r="R6">
-        <v>132.35064328878</v>
+        <v>224.86286449193</v>
       </c>
       <c r="S6">
-        <v>0.009106916112519046</v>
+        <v>0.00918252097456029</v>
       </c>
       <c r="T6">
-        <v>0.009106916112519046</v>
+        <v>0.00918252097456029</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.445865</v>
       </c>
       <c r="I7">
-        <v>0.04340740723433098</v>
+        <v>0.03077064395059555</v>
       </c>
       <c r="J7">
-        <v>0.04340740723433097</v>
+        <v>0.03077064395059554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>24.22625842183945</v>
@@ -883,10 +883,10 @@
         <v>218.036325796555</v>
       </c>
       <c r="S7">
-        <v>0.01500286269239034</v>
+        <v>0.008903751801644334</v>
       </c>
       <c r="T7">
-        <v>0.01500286269239034</v>
+        <v>0.008903751801644332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.445865</v>
       </c>
       <c r="I8">
-        <v>0.04340740723433098</v>
+        <v>0.03077064395059555</v>
       </c>
       <c r="J8">
-        <v>0.04340740723433097</v>
+        <v>0.03077064395059554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>21.44206349526111</v>
+        <v>24.67023508448333</v>
       </c>
       <c r="R8">
-        <v>192.97857145735</v>
+        <v>222.03211576035</v>
       </c>
       <c r="S8">
-        <v>0.0132786635418253</v>
+        <v>0.009066924254487484</v>
       </c>
       <c r="T8">
-        <v>0.0132786635418253</v>
+        <v>0.009066924254487482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.445865</v>
       </c>
       <c r="I9">
-        <v>0.04340740723433098</v>
+        <v>0.03077064395059555</v>
       </c>
       <c r="J9">
-        <v>0.04340740723433097</v>
+        <v>0.03077064395059554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>9.719278366311114</v>
+        <v>9.842727634510558</v>
       </c>
       <c r="R9">
-        <v>87.47350529680001</v>
+        <v>88.584548710595</v>
       </c>
       <c r="S9">
-        <v>0.006018964887596289</v>
+        <v>0.003617446919903439</v>
       </c>
       <c r="T9">
-        <v>0.006018964887596289</v>
+        <v>0.003617446919903438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.566257666666667</v>
+        <v>2.658767</v>
       </c>
       <c r="H10">
-        <v>7.698773</v>
+        <v>7.976300999999999</v>
       </c>
       <c r="I10">
-        <v>0.7495178469170534</v>
+        <v>0.5504713716344166</v>
       </c>
       <c r="J10">
-        <v>0.7495178469170533</v>
+        <v>0.5504713716344165</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>253.9227890565507</v>
+        <v>446.9648612895646</v>
       </c>
       <c r="R10">
-        <v>2285.305101508956</v>
+        <v>4022.683751606081</v>
       </c>
       <c r="S10">
-        <v>0.157249570790097</v>
+        <v>0.1642706900786252</v>
       </c>
       <c r="T10">
-        <v>0.157249570790097</v>
+        <v>0.1642706900786252</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.566257666666667</v>
+        <v>2.658767</v>
       </c>
       <c r="H11">
-        <v>7.698773</v>
+        <v>7.976300999999999</v>
       </c>
       <c r="I11">
-        <v>0.7495178469170534</v>
+        <v>0.5504713716344166</v>
       </c>
       <c r="J11">
-        <v>0.7495178469170533</v>
+        <v>0.5504713716344165</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>418.3160019940568</v>
+        <v>433.3956001847563</v>
       </c>
       <c r="R11">
-        <v>3764.844017946511</v>
+        <v>3900.560401662807</v>
       </c>
       <c r="S11">
-        <v>0.2590551718993014</v>
+        <v>0.1592836495333957</v>
       </c>
       <c r="T11">
-        <v>0.2590551718993014</v>
+        <v>0.1592836495333957</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.566257666666667</v>
+        <v>2.658767</v>
       </c>
       <c r="H12">
-        <v>7.698773</v>
+        <v>7.976300999999999</v>
       </c>
       <c r="I12">
-        <v>0.7495178469170534</v>
+        <v>0.5504713716344166</v>
       </c>
       <c r="J12">
-        <v>0.7495178469170533</v>
+        <v>0.5504713716344165</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>370.2411705372744</v>
+        <v>441.3381197775099</v>
       </c>
       <c r="R12">
-        <v>3332.17053483547</v>
+        <v>3972.04307799759</v>
       </c>
       <c r="S12">
-        <v>0.229283339916542</v>
+        <v>0.1622027227927574</v>
       </c>
       <c r="T12">
-        <v>0.229283339916542</v>
+        <v>0.1622027227927573</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.566257666666667</v>
+        <v>2.658767</v>
       </c>
       <c r="H13">
-        <v>7.698773</v>
+        <v>7.976300999999999</v>
       </c>
       <c r="I13">
-        <v>0.7495178469170534</v>
+        <v>0.5504713716344166</v>
       </c>
       <c r="J13">
-        <v>0.7495178469170533</v>
+        <v>0.5504713716344165</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>167.8232601034845</v>
+        <v>176.0814557632337</v>
       </c>
       <c r="R13">
-        <v>1510.40934093136</v>
+        <v>1584.733101869103</v>
       </c>
       <c r="S13">
-        <v>0.1039297643111129</v>
+        <v>0.06471430922963838</v>
       </c>
       <c r="T13">
-        <v>0.1039297643111129</v>
+        <v>0.06471430922963836</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01582833333333333</v>
+        <v>0.1976323333333333</v>
       </c>
       <c r="H14">
-        <v>0.047485</v>
+        <v>0.592897</v>
       </c>
       <c r="I14">
-        <v>0.004622925622155151</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="J14">
-        <v>0.00462292562215515</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>1.566161729713333</v>
+        <v>33.22393743215044</v>
       </c>
       <c r="R14">
-        <v>14.09545556742</v>
+        <v>299.015436889354</v>
       </c>
       <c r="S14">
-        <v>0.0009698942765253314</v>
+        <v>0.01221062235935512</v>
       </c>
       <c r="T14">
-        <v>0.0009698942765253313</v>
+        <v>0.01221062235935512</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01582833333333333</v>
+        <v>0.1976323333333333</v>
       </c>
       <c r="H15">
-        <v>0.047485</v>
+        <v>0.592897</v>
       </c>
       <c r="I15">
-        <v>0.004622925622155151</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="J15">
-        <v>0.00462292562215515</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>2.580117033543889</v>
+        <v>32.21530270268656</v>
       </c>
       <c r="R15">
-        <v>23.221053301895</v>
+        <v>289.937724324179</v>
       </c>
       <c r="S15">
-        <v>0.001597817579195844</v>
+        <v>0.01183992403965218</v>
       </c>
       <c r="T15">
-        <v>0.001597817579195844</v>
+        <v>0.01183992403965218</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01582833333333333</v>
+        <v>0.1976323333333333</v>
       </c>
       <c r="H16">
-        <v>0.047485</v>
+        <v>0.592897</v>
       </c>
       <c r="I16">
-        <v>0.004622925622155151</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="J16">
-        <v>0.00462292562215515</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>2.283597916572222</v>
+        <v>32.80568865213667</v>
       </c>
       <c r="R16">
-        <v>20.55238124915</v>
+        <v>295.25119786923</v>
       </c>
       <c r="S16">
-        <v>0.001414188909834983</v>
+        <v>0.01205690554251369</v>
       </c>
       <c r="T16">
-        <v>0.001414188909834983</v>
+        <v>0.01205690554251369</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.01582833333333333</v>
+        <v>0.1976323333333333</v>
       </c>
       <c r="H17">
-        <v>0.047485</v>
+        <v>0.592897</v>
       </c>
       <c r="I17">
-        <v>0.004622925622155151</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="J17">
-        <v>0.00462292562215515</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>1.035111375022223</v>
+        <v>13.08854403534345</v>
       </c>
       <c r="R17">
-        <v>9.316002375200002</v>
+        <v>117.796896318091</v>
       </c>
       <c r="S17">
-        <v>0.0006410248565989924</v>
+        <v>0.004810365080169981</v>
       </c>
       <c r="T17">
-        <v>0.0006410248565989924</v>
+        <v>0.004810365080169981</v>
       </c>
     </row>
   </sheetData>
